--- a/text.xlsx
+++ b/text.xlsx
@@ -1,21 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Students Name</t>
+  </si>
+  <si>
+    <t>Subject Name</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Credit Hour</t>
+  </si>
+  <si>
+    <t>Marks Obtained</t>
+  </si>
+  <si>
+    <t>Swastika Bhattarai</t>
+  </si>
+  <si>
+    <t>Computer Forensic</t>
+  </si>
+  <si>
+    <t>Web Economy</t>
+  </si>
+  <si>
+    <t>CWE</t>
+  </si>
+  <si>
+    <t>CCF</t>
+  </si>
+  <si>
+    <t>Internet and WWW</t>
+  </si>
+  <si>
+    <t>CIW</t>
+  </si>
+  <si>
+    <t>Academic Writing</t>
+  </si>
+  <si>
+    <t>CAW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project proposal </t>
+  </si>
+  <si>
+    <t>CPP</t>
+  </si>
+  <si>
+    <t>Bibek Khatri</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +112,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +201,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +409,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>87</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>92</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>85</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>90</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>83</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>